--- a/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
+++ b/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="352">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1060,6 +1060,36 @@
   </si>
   <si>
     <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/18-22/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/12-15/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1977,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +2020,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2084,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2144,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2210,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2273,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2371,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2430,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2495,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2538,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2613,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2799,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2865,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2923,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2989,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3045,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3120,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3163,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3229,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3285,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3383,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3446,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3512,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K726" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K731" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3860,12 +3890,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K726"/>
+  <dimension ref="A2:K731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A525" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A528" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:E720"/>
-      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
+      <selection pane="bottomLeft" activeCell="D539" sqref="D539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,7 +4052,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.144000000000062</v>
+        <v>31.805000000000064</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4032,7 +4062,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.425000000000011</v>
+        <v>82.675000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15623,28 +15653,28 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B538" s="20"/>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D538" s="39"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="49"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13">
@@ -15664,13 +15694,17 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B540" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>350</v>
+      </c>
       <c r="C540" s="13">
         <v>1.25</v>
       </c>
-      <c r="D540" s="39"/>
+      <c r="D540" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
       <c r="G540" s="13">
@@ -15684,44 +15718,44 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B541" s="20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C541" s="13">
         <v>1.25</v>
       </c>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H541" s="39">
-        <v>2</v>
-      </c>
+      <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20" t="s">
-        <v>338</v>
-      </c>
+      <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B542" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C542" s="13"/>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H542" s="39">
         <v>2</v>
@@ -15729,50 +15763,63 @@
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
       <c r="K542" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40"/>
+      <c r="A543" s="40">
+        <v>45261</v>
+      </c>
       <c r="B543" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C543" s="13"/>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13"/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H543" s="39">
         <v>2</v>
       </c>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
       <c r="K543" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="B544" s="20"/>
+      <c r="A544" s="40"/>
+      <c r="B544" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="13"/>
-      <c r="H544" s="39"/>
+      <c r="H544" s="39">
+        <v>2</v>
+      </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="K544" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B545" s="20"/>
+      <c r="A545" s="40"/>
+      <c r="B545" s="20" t="s">
+        <v>342</v>
+      </c>
       <c r="C545" s="13"/>
-      <c r="D545" s="39"/>
+      <c r="D545" s="39">
+        <v>5</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
       <c r="G545" s="13" t="str">
@@ -15782,13 +15829,15 @@
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20"/>
+      <c r="K545" s="20" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B546" s="20"/>
+      <c r="A546" s="40"/>
+      <c r="B546" s="20" t="s">
+        <v>344</v>
+      </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
@@ -15800,15 +15849,19 @@
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
+      <c r="K546" s="20" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B547" s="20"/>
+      <c r="A547" s="40"/>
+      <c r="B547" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C547" s="13"/>
-      <c r="D547" s="39"/>
+      <c r="D547" s="39">
+        <v>4</v>
+      </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
       <c r="G547" s="13" t="str">
@@ -15818,15 +15871,19 @@
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="20" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B548" s="20"/>
+      <c r="A548" s="40"/>
+      <c r="B548" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="C548" s="13"/>
-      <c r="D548" s="39"/>
+      <c r="D548" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
       <c r="G548" s="13" t="str">
@@ -15839,18 +15896,15 @@
       <c r="K548" s="20"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40">
-        <v>45413</v>
+      <c r="A549" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G549" s="13"/>
       <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
@@ -15858,7 +15912,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15876,7 +15930,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15894,7 +15948,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15912,7 +15966,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15930,7 +15984,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15948,7 +16002,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15966,7 +16020,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15984,7 +16038,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16002,7 +16056,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16020,7 +16074,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16038,7 +16092,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16056,7 +16110,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16074,7 +16128,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16092,7 +16146,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16110,7 +16164,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16128,7 +16182,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16146,7 +16200,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16164,7 +16218,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16182,7 +16236,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16200,7 +16254,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16218,7 +16272,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16236,7 +16290,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16254,7 +16308,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16272,7 +16326,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16290,7 +16344,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16308,7 +16362,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16326,7 +16380,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16344,7 +16398,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16362,7 +16416,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16380,7 +16434,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16398,7 +16452,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16416,7 +16470,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16434,7 +16488,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16452,7 +16506,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46447</v>
+        <v>46296</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16470,7 +16524,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46478</v>
+        <v>46327</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16488,7 +16542,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46508</v>
+        <v>46357</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16506,7 +16560,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46539</v>
+        <v>46388</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16524,7 +16578,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46569</v>
+        <v>46419</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16542,7 +16596,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46600</v>
+        <v>46447</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16560,7 +16614,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46631</v>
+        <v>46478</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16578,7 +16632,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46661</v>
+        <v>46508</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16596,7 +16650,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46692</v>
+        <v>46539</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16614,7 +16668,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46722</v>
+        <v>46569</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16632,7 +16686,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46753</v>
+        <v>46600</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16650,7 +16704,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46784</v>
+        <v>46631</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16668,7 +16722,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46813</v>
+        <v>46661</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16686,7 +16740,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46844</v>
+        <v>46692</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16704,7 +16758,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46874</v>
+        <v>46722</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16722,7 +16776,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46905</v>
+        <v>46753</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16740,7 +16794,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46935</v>
+        <v>46784</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16758,7 +16812,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46966</v>
+        <v>46813</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16776,7 +16830,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46997</v>
+        <v>46844</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16794,7 +16848,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>47027</v>
+        <v>46874</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16812,7 +16866,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>47058</v>
+        <v>46905</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16830,7 +16884,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>47088</v>
+        <v>46935</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16848,7 +16902,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>47119</v>
+        <v>46966</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16866,7 +16920,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>47150</v>
+        <v>46997</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16884,7 +16938,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>47178</v>
+        <v>47027</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16902,7 +16956,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>47209</v>
+        <v>47058</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16920,7 +16974,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>47239</v>
+        <v>47088</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16938,7 +16992,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>47270</v>
+        <v>47119</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16956,7 +17010,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>47300</v>
+        <v>47150</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16974,7 +17028,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>47331</v>
+        <v>47178</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16992,7 +17046,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>47362</v>
+        <v>47209</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17010,7 +17064,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>47392</v>
+        <v>47239</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17028,7 +17082,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>47423</v>
+        <v>47270</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17046,7 +17100,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>47453</v>
+        <v>47300</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17064,7 +17118,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>47484</v>
+        <v>47331</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17082,7 +17136,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>47515</v>
+        <v>47362</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17100,7 +17154,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>47543</v>
+        <v>47392</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17118,7 +17172,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>47574</v>
+        <v>47423</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17136,7 +17190,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>47604</v>
+        <v>47453</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17154,7 +17208,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>47635</v>
+        <v>47484</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17172,7 +17226,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>47665</v>
+        <v>47515</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17190,7 +17244,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>47696</v>
+        <v>47543</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17208,7 +17262,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>47727</v>
+        <v>47574</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17226,7 +17280,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>47757</v>
+        <v>47604</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17244,7 +17298,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>47788</v>
+        <v>47635</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17262,7 +17316,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>47818</v>
+        <v>47665</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17280,7 +17334,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>47849</v>
+        <v>47696</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17298,7 +17352,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47880</v>
+        <v>47727</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17316,7 +17370,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47908</v>
+        <v>47757</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17334,7 +17388,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>47939</v>
+        <v>47788</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17352,7 +17406,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>47969</v>
+        <v>47818</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17370,7 +17424,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>48000</v>
+        <v>47849</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17388,7 +17442,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>48030</v>
+        <v>47880</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17406,7 +17460,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>48061</v>
+        <v>47908</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17424,7 +17478,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>48092</v>
+        <v>47939</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17442,7 +17496,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>48122</v>
+        <v>47969</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17460,7 +17514,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>48153</v>
+        <v>48000</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17478,7 +17532,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>48183</v>
+        <v>48030</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17496,7 +17550,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>48214</v>
+        <v>48061</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17514,7 +17568,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>48245</v>
+        <v>48092</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17532,7 +17586,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>48274</v>
+        <v>48122</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17550,7 +17604,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>48305</v>
+        <v>48153</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17568,7 +17622,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>48335</v>
+        <v>48183</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17586,7 +17640,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>48366</v>
+        <v>48214</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17604,7 +17658,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>48396</v>
+        <v>48245</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17622,7 +17676,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>48427</v>
+        <v>48274</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17640,7 +17694,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>48458</v>
+        <v>48305</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17658,7 +17712,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>48488</v>
+        <v>48335</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17676,7 +17730,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>48519</v>
+        <v>48366</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17694,7 +17748,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>48549</v>
+        <v>48396</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17712,7 +17766,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>48580</v>
+        <v>48427</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17730,7 +17784,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>48611</v>
+        <v>48458</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17748,7 +17802,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>48639</v>
+        <v>48488</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17766,7 +17820,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>48670</v>
+        <v>48519</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17784,7 +17838,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>48700</v>
+        <v>48549</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17802,7 +17856,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>48731</v>
+        <v>48580</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17820,7 +17874,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>48761</v>
+        <v>48611</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17838,7 +17892,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>48792</v>
+        <v>48639</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17856,7 +17910,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>48823</v>
+        <v>48670</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17874,7 +17928,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>48853</v>
+        <v>48700</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17892,7 +17946,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>48884</v>
+        <v>48731</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17910,7 +17964,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>48914</v>
+        <v>48761</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17928,7 +17982,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>48945</v>
+        <v>48792</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17946,7 +18000,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>48976</v>
+        <v>48823</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17964,7 +18018,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>49004</v>
+        <v>48853</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17982,7 +18036,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>49035</v>
+        <v>48884</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18000,7 +18054,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>49065</v>
+        <v>48914</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18018,7 +18072,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>49096</v>
+        <v>48945</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18036,7 +18090,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>49126</v>
+        <v>48976</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18054,7 +18108,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>49157</v>
+        <v>49004</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18072,7 +18126,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>49188</v>
+        <v>49035</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18090,7 +18144,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>49218</v>
+        <v>49065</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18108,7 +18162,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>49249</v>
+        <v>49096</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18126,7 +18180,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>49279</v>
+        <v>49126</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18144,7 +18198,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>49310</v>
+        <v>49157</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18162,7 +18216,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>49341</v>
+        <v>49188</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18180,7 +18234,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>49369</v>
+        <v>49218</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18198,7 +18252,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>49400</v>
+        <v>49249</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18216,7 +18270,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>49430</v>
+        <v>49279</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18234,7 +18288,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>49461</v>
+        <v>49310</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18252,7 +18306,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>49491</v>
+        <v>49341</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18270,7 +18324,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>49522</v>
+        <v>49369</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18288,7 +18342,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>49553</v>
+        <v>49400</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18306,7 +18360,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>49583</v>
+        <v>49430</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18324,7 +18378,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>49614</v>
+        <v>49461</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18342,7 +18396,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>49644</v>
+        <v>49491</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18360,7 +18414,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>49675</v>
+        <v>49522</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18378,7 +18432,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>49706</v>
+        <v>49553</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18396,7 +18450,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>49735</v>
+        <v>49583</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18414,7 +18468,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>49766</v>
+        <v>49614</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18432,7 +18486,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>49796</v>
+        <v>49644</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18450,7 +18504,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>49827</v>
+        <v>49675</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18468,7 +18522,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>49857</v>
+        <v>49706</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18486,7 +18540,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>49888</v>
+        <v>49735</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18504,7 +18558,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>49919</v>
+        <v>49766</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18522,7 +18576,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>49949</v>
+        <v>49796</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18540,7 +18594,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>49980</v>
+        <v>49827</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18558,7 +18612,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>50010</v>
+        <v>49857</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18576,7 +18630,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>50041</v>
+        <v>49888</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18594,7 +18648,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>50072</v>
+        <v>49919</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18612,7 +18666,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>50100</v>
+        <v>49949</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18630,7 +18684,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>50131</v>
+        <v>49980</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18648,7 +18702,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>50161</v>
+        <v>50010</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18666,7 +18720,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>50192</v>
+        <v>50041</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18684,7 +18738,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>50222</v>
+        <v>50072</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18702,7 +18756,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>50253</v>
+        <v>50100</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18720,7 +18774,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>50284</v>
+        <v>50131</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18738,7 +18792,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>50314</v>
+        <v>50161</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18756,7 +18810,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>50345</v>
+        <v>50192</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18774,7 +18828,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>50375</v>
+        <v>50222</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18792,7 +18846,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>50406</v>
+        <v>50253</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18810,7 +18864,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>50437</v>
+        <v>50284</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18828,7 +18882,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>50465</v>
+        <v>50314</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18846,7 +18900,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>50496</v>
+        <v>50345</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18864,7 +18918,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>50526</v>
+        <v>50375</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18882,7 +18936,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>50557</v>
+        <v>50406</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18900,7 +18954,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>50587</v>
+        <v>50437</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18918,7 +18972,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>50618</v>
+        <v>50465</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18936,7 +18990,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>50649</v>
+        <v>50496</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18954,7 +19008,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>50679</v>
+        <v>50526</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18971,7 +19025,9 @@
       <c r="K722" s="20"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="40"/>
+      <c r="A723" s="40">
+        <v>50557</v>
+      </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
       <c r="D723" s="39"/>
@@ -18987,7 +19043,9 @@
       <c r="K723" s="20"/>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40"/>
+      <c r="A724" s="40">
+        <v>50587</v>
+      </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
       <c r="D724" s="39"/>
@@ -19003,7 +19061,9 @@
       <c r="K724" s="20"/>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" s="40"/>
+      <c r="A725" s="40">
+        <v>50618</v>
+      </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
       <c r="D725" s="39"/>
@@ -19019,20 +19079,104 @@
       <c r="K725" s="20"/>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" s="41"/>
-      <c r="B726" s="15"/>
-      <c r="C726" s="42"/>
-      <c r="D726" s="43"/>
+      <c r="A726" s="40">
+        <v>50649</v>
+      </c>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
       <c r="E726" s="9"/>
-      <c r="F726" s="15"/>
-      <c r="G726" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H726" s="43"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
       <c r="I726" s="9"/>
-      <c r="J726" s="12"/>
-      <c r="K726" s="15"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A727" s="40">
+        <v>50679</v>
+      </c>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A728" s="40"/>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A729" s="40"/>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A730" s="40"/>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="41"/>
+      <c r="B731" s="15"/>
+      <c r="C731" s="42"/>
+      <c r="D731" s="43"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="15"/>
+      <c r="G731" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="43"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="12"/>
+      <c r="K731" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19149,11 +19293,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
+++ b/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="356">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1090,6 +1090,18 @@
   </si>
   <si>
     <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-49)</t>
+  </si>
+  <si>
+    <t>3/14,15,16/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>UT(0-3-21)</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1989,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2032,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2096,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2156,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2222,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2285,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2383,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2442,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2507,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2550,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2625,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2811,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2877,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2935,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +3001,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3057,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3132,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3175,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3229,7 +3241,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3297,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3395,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3458,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3524,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K731" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3890,12 +3902,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K731"/>
+  <dimension ref="A2:K733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A528" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:E720"/>
-      <selection pane="bottomLeft" activeCell="D539" sqref="D539"/>
+      <selection pane="bottomLeft" activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,7 +4064,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.805000000000064</v>
+        <v>26.730000000000132</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -15510,11 +15522,15 @@
       <c r="A531" s="40">
         <v>44927</v>
       </c>
-      <c r="B531" s="20"/>
+      <c r="B531" s="20" t="s">
+        <v>355</v>
+      </c>
       <c r="C531" s="13">
         <v>1.25</v>
       </c>
-      <c r="D531" s="39"/>
+      <c r="D531" s="39">
+        <v>0.41899999999999998</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
       <c r="G531" s="13">
@@ -15530,11 +15546,15 @@
       <c r="A532" s="40">
         <v>44958</v>
       </c>
-      <c r="B532" s="20"/>
+      <c r="B532" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="C532" s="13">
         <v>1.25</v>
       </c>
-      <c r="D532" s="39"/>
+      <c r="D532" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
       <c r="G532" s="13">
@@ -15550,11 +15570,15 @@
       <c r="A533" s="40">
         <v>44986</v>
       </c>
-      <c r="B533" s="20"/>
+      <c r="B533" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="C533" s="13">
         <v>1.25</v>
       </c>
-      <c r="D533" s="39"/>
+      <c r="D533" s="39">
+        <v>3</v>
+      </c>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
       <c r="G533" s="13">
@@ -15564,22 +15588,24 @@
       <c r="H533" s="39"/>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="20"/>
+      <c r="K533" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B534" s="20"/>
-      <c r="C534" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D534" s="39"/>
+      <c r="A534" s="40"/>
+      <c r="B534" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C534" s="13"/>
+      <c r="D534" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G534" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
@@ -15588,13 +15614,17 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B535" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B535" s="20" t="s">
+        <v>329</v>
+      </c>
       <c r="C535" s="13">
         <v>1.25</v>
       </c>
-      <c r="D535" s="39"/>
+      <c r="D535" s="39">
+        <v>1</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
       <c r="G535" s="13">
@@ -15604,35 +15634,35 @@
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="49">
+        <v>45028</v>
+      </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D536" s="39"/>
+      <c r="A536" s="40"/>
+      <c r="B536" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39">
+        <v>0.10200000000000001</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="49"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B537" s="20" t="s">
-        <v>323</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B537" s="20"/>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
@@ -15643,40 +15673,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H537" s="39">
-        <v>1</v>
-      </c>
+      <c r="H537" s="39"/>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="49">
-        <v>45121</v>
-      </c>
+      <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40"/>
-      <c r="B538" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C538" s="13"/>
-      <c r="D538" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="A538" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="49"/>
+      <c r="K538" s="20"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B539" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="C539" s="13">
         <v>1.25</v>
       </c>
@@ -15687,48 +15715,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H539" s="39"/>
+      <c r="H539" s="39">
+        <v>1</v>
+      </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="49">
+        <v>45121</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C540" s="13">
-        <v>1.25</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C540" s="13"/>
       <c r="D540" s="39">
-        <v>3.1000000000000014E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="49"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B541" s="20" t="s">
-        <v>349</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B541" s="20"/>
       <c r="C541" s="13">
         <v>1.25</v>
       </c>
-      <c r="D541" s="39">
-        <v>5.6000000000000015E-2</v>
-      </c>
+      <c r="D541" s="39"/>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13">
@@ -15742,125 +15766,131 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C542" s="13">
         <v>1.25</v>
       </c>
-      <c r="D542" s="39"/>
+      <c r="D542" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
       <c r="G542" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H542" s="39">
-        <v>2</v>
-      </c>
+      <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20" t="s">
-        <v>338</v>
-      </c>
+      <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B543" s="20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C543" s="13">
         <v>1.25</v>
       </c>
-      <c r="D543" s="39"/>
+      <c r="D543" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
       <c r="G543" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H543" s="39">
-        <v>2</v>
-      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20" t="s">
-        <v>339</v>
-      </c>
+      <c r="K543" s="20"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="40"/>
+      <c r="A544" s="40">
+        <v>45231</v>
+      </c>
       <c r="B544" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C544" s="13"/>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13"/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H544" s="39">
         <v>2</v>
       </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40"/>
+      <c r="A545" s="40">
+        <v>45261</v>
+      </c>
       <c r="B545" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C545" s="13"/>
-      <c r="D545" s="39">
-        <v>5</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C545" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H545" s="39"/>
+      <c r="G545" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H545" s="39">
+        <v>2</v>
+      </c>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
       <c r="K545" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H546" s="39"/>
+      <c r="G546" s="13"/>
+      <c r="H546" s="39">
+        <v>2</v>
+      </c>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
       <c r="K546" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
@@ -15872,18 +15902,16 @@
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
       <c r="K547" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C548" s="13"/>
-      <c r="D548" s="39">
-        <v>2E-3</v>
-      </c>
+      <c r="D548" s="39"/>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
       <c r="G548" s="13" t="str">
@@ -15893,30 +15921,41 @@
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="20" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="B549" s="20"/>
+      <c r="A549" s="40"/>
+      <c r="B549" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="C549" s="13"/>
-      <c r="D549" s="39"/>
+      <c r="D549" s="39">
+        <v>4</v>
+      </c>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="13"/>
+      <c r="G549" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="20" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B550" s="20"/>
+      <c r="A550" s="40"/>
+      <c r="B550" s="20" t="s">
+        <v>348</v>
+      </c>
       <c r="C550" s="13"/>
-      <c r="D550" s="39"/>
+      <c r="D550" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
       <c r="G550" s="13" t="str">
@@ -15929,18 +15968,15 @@
       <c r="K550" s="20"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40">
-        <v>45323</v>
+      <c r="A551" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G551" s="13"/>
       <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
@@ -15948,7 +15984,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15966,7 +16002,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15984,7 +16020,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16002,7 +16038,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16020,7 +16056,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16038,7 +16074,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16056,7 +16092,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16074,7 +16110,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16092,7 +16128,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16110,7 +16146,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16128,7 +16164,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16146,7 +16182,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16164,7 +16200,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16182,7 +16218,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16200,7 +16236,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16218,7 +16254,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16236,7 +16272,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16254,7 +16290,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16272,7 +16308,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16290,7 +16326,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16308,7 +16344,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16326,7 +16362,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16344,7 +16380,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16362,7 +16398,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16380,7 +16416,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16398,7 +16434,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16416,7 +16452,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16434,7 +16470,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16452,7 +16488,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16470,7 +16506,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16488,7 +16524,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16506,7 +16542,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16524,7 +16560,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16542,7 +16578,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16560,7 +16596,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16578,7 +16614,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16596,7 +16632,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16614,7 +16650,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16632,7 +16668,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16650,7 +16686,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16668,7 +16704,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16686,7 +16722,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16704,7 +16740,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16722,7 +16758,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16740,7 +16776,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16758,7 +16794,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16776,7 +16812,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16794,7 +16830,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16812,7 +16848,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16830,7 +16866,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16848,7 +16884,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16866,7 +16902,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16884,7 +16920,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16902,7 +16938,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16920,7 +16956,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16938,7 +16974,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16956,7 +16992,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16974,7 +17010,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16992,7 +17028,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17010,7 +17046,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17028,7 +17064,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17046,7 +17082,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17064,7 +17100,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17082,7 +17118,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17100,7 +17136,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17118,7 +17154,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17136,7 +17172,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17154,7 +17190,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17172,7 +17208,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17190,7 +17226,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17208,7 +17244,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -17226,7 +17262,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -17244,7 +17280,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -17262,7 +17298,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -17280,7 +17316,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -17298,7 +17334,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -17316,7 +17352,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -17334,7 +17370,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -17352,7 +17388,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -17370,7 +17406,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -17388,7 +17424,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -17406,7 +17442,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -17424,7 +17460,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -17442,7 +17478,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -17460,7 +17496,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -17478,7 +17514,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -17496,7 +17532,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -17514,7 +17550,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -17532,7 +17568,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -17550,7 +17586,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -17568,7 +17604,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -17586,7 +17622,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -17604,7 +17640,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -17622,7 +17658,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -17640,7 +17676,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -17658,7 +17694,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -17676,7 +17712,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -17694,7 +17730,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17712,7 +17748,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17730,7 +17766,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17748,7 +17784,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17766,7 +17802,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17784,7 +17820,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17802,7 +17838,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17820,7 +17856,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17838,7 +17874,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17856,7 +17892,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17874,7 +17910,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17892,7 +17928,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17910,7 +17946,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17928,7 +17964,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17946,7 +17982,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17964,7 +18000,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17982,7 +18018,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18000,7 +18036,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18018,7 +18054,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18036,7 +18072,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18054,7 +18090,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18072,7 +18108,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18090,7 +18126,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18108,7 +18144,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18126,7 +18162,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18144,7 +18180,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18162,7 +18198,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18180,7 +18216,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18198,7 +18234,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18216,7 +18252,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18234,7 +18270,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18252,7 +18288,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18270,7 +18306,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18288,7 +18324,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18306,7 +18342,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18324,7 +18360,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18342,7 +18378,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18360,7 +18396,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18378,7 +18414,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18396,7 +18432,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18414,7 +18450,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>49522</v>
+        <v>49461</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18432,7 +18468,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>49553</v>
+        <v>49491</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18450,7 +18486,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>49583</v>
+        <v>49522</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18468,7 +18504,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>49614</v>
+        <v>49553</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18486,7 +18522,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>49644</v>
+        <v>49583</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18504,7 +18540,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>49675</v>
+        <v>49614</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18522,7 +18558,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>49706</v>
+        <v>49644</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18540,7 +18576,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>49735</v>
+        <v>49675</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18558,7 +18594,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>49766</v>
+        <v>49706</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18576,7 +18612,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>49796</v>
+        <v>49735</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18594,7 +18630,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>49827</v>
+        <v>49766</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18612,7 +18648,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>49857</v>
+        <v>49796</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18630,7 +18666,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>49888</v>
+        <v>49827</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18648,7 +18684,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>49919</v>
+        <v>49857</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18666,7 +18702,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>49949</v>
+        <v>49888</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18684,7 +18720,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>49980</v>
+        <v>49919</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18702,7 +18738,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>50010</v>
+        <v>49949</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18720,7 +18756,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>50041</v>
+        <v>49980</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18738,7 +18774,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>50072</v>
+        <v>50010</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18756,7 +18792,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>50100</v>
+        <v>50041</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18774,7 +18810,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>50131</v>
+        <v>50072</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18792,7 +18828,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>50161</v>
+        <v>50100</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18810,7 +18846,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>50192</v>
+        <v>50131</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18828,7 +18864,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>50222</v>
+        <v>50161</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18846,7 +18882,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>50253</v>
+        <v>50192</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18864,7 +18900,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>50284</v>
+        <v>50222</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18882,7 +18918,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>50314</v>
+        <v>50253</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18900,7 +18936,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>50345</v>
+        <v>50284</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18918,7 +18954,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>50375</v>
+        <v>50314</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18936,7 +18972,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>50406</v>
+        <v>50345</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18954,7 +18990,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>50437</v>
+        <v>50375</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18972,7 +19008,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>50465</v>
+        <v>50406</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18990,7 +19026,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>50496</v>
+        <v>50437</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19008,7 +19044,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>50526</v>
+        <v>50465</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19026,7 +19062,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>50557</v>
+        <v>50496</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19044,7 +19080,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>50587</v>
+        <v>50526</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19062,7 +19098,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>50618</v>
+        <v>50557</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19080,7 +19116,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>50649</v>
+        <v>50587</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19098,7 +19134,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>50679</v>
+        <v>50618</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19115,7 +19151,9 @@
       <c r="K727" s="20"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="40"/>
+      <c r="A728" s="40">
+        <v>50649</v>
+      </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
       <c r="D728" s="39"/>
@@ -19131,7 +19169,9 @@
       <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
+      <c r="A729" s="40">
+        <v>50679</v>
+      </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
       <c r="D729" s="39"/>
@@ -19163,20 +19203,52 @@
       <c r="K730" s="20"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="41"/>
-      <c r="B731" s="15"/>
-      <c r="C731" s="42"/>
-      <c r="D731" s="43"/>
+      <c r="A731" s="40"/>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
       <c r="E731" s="9"/>
-      <c r="F731" s="15"/>
-      <c r="G731" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="43"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
       <c r="I731" s="9"/>
-      <c r="J731" s="12"/>
-      <c r="K731" s="15"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A732" s="40"/>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="39"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A733" s="41"/>
+      <c r="B733" s="15"/>
+      <c r="C733" s="42"/>
+      <c r="D733" s="43"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="15"/>
+      <c r="G733" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="43"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="12"/>
+      <c r="K733" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19290,14 +19362,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
+++ b/REGULAR/CEO/MONTENEGRO, RODELIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6431C-C03B-4CCF-8EFD-75720F635FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="361">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1102,12 +1103,27 @@
   </si>
   <si>
     <t>UT(0-3-21)</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>CEO - PARKS AND PLAZA</t>
+  </si>
+  <si>
+    <t>SL(20-0-0)</t>
+  </si>
+  <si>
+    <t>12/12/2023 - 1/10/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1989,7 +2005,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2048,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2112,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2172,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2238,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2301,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2399,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2458,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2523,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2566,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2641,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2827,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2893,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2951,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3001,7 +3017,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3057,7 +3073,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3148,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3191,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3257,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3313,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,7 +3411,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3474,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3523,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3524,25 +3540,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K733" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3554,13 +3570,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3569,14 +3585,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3880,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3890,7 +3906,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3898,34 +3914,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A528" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9:E720"/>
-      <selection pane="bottomLeft" activeCell="F539" sqref="F539"/>
+      <pane ySplit="3696" topLeftCell="A540" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3946,11 +3962,13 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>356</v>
+      </c>
       <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3964,16 +3982,20 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>357</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="61" t="s">
+        <v>358</v>
+      </c>
       <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3982,7 +4004,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3990,7 +4012,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4003,7 +4025,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -4020,7 +4042,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4064,7 +4086,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.730000000000132</v>
+        <v>27.980000000000132</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4074,12 +4096,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82.675000000000011</v>
+        <v>63.925000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4101,7 +4123,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35582</v>
       </c>
@@ -4121,7 +4143,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35612</v>
@@ -4142,7 +4164,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>35643</v>
@@ -4163,7 +4185,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4184,7 +4206,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4205,7 +4227,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4226,7 +4248,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4247,7 +4269,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -4265,7 +4287,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35796</v>
       </c>
@@ -4285,7 +4307,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35827</v>
@@ -4306,7 +4328,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35855</v>
@@ -4333,7 +4355,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4354,7 +4376,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4375,7 +4397,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4402,7 +4424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4423,7 +4445,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4444,7 +4466,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4465,7 +4487,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4486,7 +4508,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4513,7 +4535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>36130</v>
@@ -4538,7 +4560,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -4556,7 +4578,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36161</v>
       </c>
@@ -4576,7 +4598,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -4597,7 +4619,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>36220</v>
@@ -4618,7 +4640,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4639,7 +4661,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4660,7 +4682,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -4681,7 +4703,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4706,7 +4728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -4724,7 +4746,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>36373</v>
@@ -4745,7 +4767,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4766,7 +4788,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4787,7 +4809,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4808,7 +4830,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -4833,7 +4855,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>54</v>
       </c>
@@ -4851,7 +4873,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36526</v>
       </c>
@@ -4871,7 +4893,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>36557</v>
@@ -4892,7 +4914,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" ref="A48:A56" si="3">EDATE(A47,1)</f>
         <v>36586</v>
@@ -4913,7 +4935,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4934,7 +4956,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4961,7 +4983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4988,7 +5010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -5009,7 +5031,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -5030,7 +5052,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -5051,7 +5073,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5072,7 +5094,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -5097,7 +5119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -5115,7 +5137,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36861</v>
@@ -5140,7 +5162,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>58</v>
       </c>
@@ -5158,7 +5180,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36892</v>
       </c>
@@ -5178,7 +5200,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>36923</v>
@@ -5199,7 +5221,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" ref="A62:A72" si="4">EDATE(A61,1)</f>
         <v>36951</v>
@@ -5224,7 +5246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -5242,7 +5264,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36982</v>
@@ -5263,7 +5285,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5288,7 +5310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5306,7 +5328,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37043</v>
@@ -5327,7 +5349,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5348,7 +5370,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5373,7 +5395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -5391,7 +5413,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A69,1)</f>
         <v>37135</v>
@@ -5418,7 +5440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5439,7 +5461,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>37196</v>
@@ -5460,7 +5482,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>37226</v>
@@ -5485,7 +5507,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>65</v>
@@ -5505,7 +5527,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>64</v>
       </c>
@@ -5523,7 +5545,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37257</v>
       </c>
@@ -5543,7 +5565,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>37288</v>
@@ -5568,7 +5590,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A90" si="5">EDATE(A78,1)</f>
         <v>37316</v>
@@ -5593,7 +5615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>69</v>
@@ -5615,7 +5637,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>37347</v>
@@ -5640,7 +5662,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5665,7 +5687,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5686,7 +5708,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5711,7 +5733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5729,7 +5751,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A84,1)</f>
         <v>37469</v>
@@ -5754,7 +5776,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5779,7 +5801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5797,7 +5819,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>37530</v>
@@ -5822,7 +5844,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5847,7 +5869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5865,7 +5887,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>37591</v>
@@ -5888,7 +5910,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>77</v>
@@ -5910,7 +5932,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="48" t="s">
         <v>78</v>
       </c>
@@ -5928,7 +5950,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37622</v>
       </c>
@@ -5952,7 +5974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5970,7 +5992,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37653</v>
@@ -5997,7 +6019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A109" si="6">EDATE(A97,1)</f>
         <v>37681</v>
@@ -6022,7 +6044,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>82</v>
@@ -6042,7 +6064,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -6060,7 +6082,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A98,1)</f>
         <v>37712</v>
@@ -6085,7 +6107,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -6110,7 +6132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>84</v>
@@ -6132,7 +6154,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37773</v>
@@ -6157,7 +6179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
@@ -6175,7 +6197,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>37803</v>
@@ -6202,7 +6224,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -6223,7 +6245,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -6248,7 +6270,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -6273,7 +6295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>90</v>
@@ -6295,7 +6317,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>37926</v>
@@ -6320,7 +6342,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -6345,7 +6367,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>94</v>
@@ -6365,7 +6387,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>93</v>
       </c>
@@ -6383,7 +6405,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -6407,7 +6429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>95</v>
@@ -6429,7 +6451,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -6454,7 +6476,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>96</v>
@@ -6476,7 +6498,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38047</v>
@@ -6501,7 +6523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>100</v>
@@ -6523,7 +6545,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>38078</v>
@@ -6548,7 +6570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>102</v>
@@ -6570,7 +6592,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>38108</v>
@@ -6595,7 +6617,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A136" si="7">EDATE(A123,1)</f>
         <v>38139</v>
@@ -6620,7 +6642,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6638,7 +6660,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38169</v>
@@ -6663,7 +6685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -6681,7 +6703,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>38200</v>
@@ -6706,7 +6728,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -6728,7 +6750,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6746,7 +6768,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A128,1)</f>
         <v>38231</v>
@@ -6771,7 +6793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -6789,7 +6811,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>38261</v>
@@ -6814,7 +6836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6832,7 +6854,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>38292</v>
@@ -6859,7 +6881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6880,7 +6902,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="48" t="s">
         <v>111</v>
       </c>
@@ -6898,7 +6920,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38353</v>
       </c>
@@ -6922,7 +6944,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>113</v>
@@ -6944,7 +6966,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -6962,7 +6984,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>38384</v>
@@ -6985,7 +7007,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -7003,7 +7025,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38412</v>
@@ -7024,7 +7046,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A160" si="8">EDATE(A143,1)</f>
         <v>38443</v>
@@ -7049,7 +7071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>49</v>
@@ -7071,7 +7093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>49</v>
@@ -7093,7 +7115,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7111,7 +7133,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>38473</v>
@@ -7132,7 +7154,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -7154,7 +7176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>38504</v>
@@ -7175,7 +7197,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -7196,7 +7218,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -7221,7 +7243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>120</v>
@@ -7241,7 +7263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -7259,7 +7281,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A152,1)</f>
         <v>38596</v>
@@ -7284,7 +7306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -7306,7 +7328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -7324,7 +7346,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38626</v>
@@ -7345,7 +7367,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -7366,7 +7388,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -7391,7 +7413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>51</v>
@@ -7413,7 +7435,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -7431,7 +7453,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="48" t="s">
         <v>126</v>
       </c>
@@ -7449,7 +7471,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38718</v>
       </c>
@@ -7469,7 +7491,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>38749</v>
@@ -7494,7 +7516,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -7512,7 +7534,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>38777</v>
@@ -7535,7 +7557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -7557,7 +7579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7575,7 +7597,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>38808</v>
@@ -7596,7 +7618,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -7618,7 +7640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -7640,7 +7662,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f>EDATE(A170,1)</f>
         <v>38838</v>
@@ -7661,7 +7683,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" ref="A174:A184" si="9">EDATE(A173,1)</f>
         <v>38869</v>
@@ -7682,7 +7704,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -7707,7 +7729,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -7725,7 +7747,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38930</v>
@@ -7750,7 +7772,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>45</v>
@@ -7772,7 +7794,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7790,7 +7812,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38961</v>
@@ -7811,7 +7833,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -7836,7 +7858,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -7854,7 +7876,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>39022</v>
@@ -7875,7 +7897,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -7900,7 +7922,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -7922,7 +7944,7 @@
         <v>38910</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>51</v>
@@ -7944,7 +7966,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="48" t="s">
         <v>136</v>
       </c>
@@ -7962,7 +7984,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>39083</v>
       </c>
@@ -7986,7 +8008,7 @@
         <v>39295</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -8004,7 +8026,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>39114</v>
@@ -8029,7 +8051,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>87</v>
@@ -8051,7 +8073,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -8069,7 +8091,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39142</v>
@@ -8094,7 +8116,7 @@
         <v>39085</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>92</v>
@@ -8116,7 +8138,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -8134,7 +8156,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A193,1)</f>
         <v>39173</v>
@@ -8161,7 +8183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -8179,7 +8201,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39203</v>
@@ -8206,7 +8228,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>141</v>
@@ -8228,7 +8250,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -8246,7 +8268,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39234</v>
@@ -8273,7 +8295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>146</v>
@@ -8293,7 +8315,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -8311,7 +8333,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A201,1)</f>
         <v>39264</v>
@@ -8338,7 +8360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>141</v>
@@ -8360,7 +8382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -8378,7 +8400,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>39295</v>
@@ -8403,7 +8425,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>152</v>
@@ -8425,7 +8447,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8443,7 +8465,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A207,1)</f>
         <v>39326</v>
@@ -8468,7 +8490,7 @@
         <v>39425</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>141</v>
@@ -8490,7 +8512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>155</v>
@@ -8512,7 +8534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>155</v>
@@ -8534,7 +8556,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -8552,7 +8574,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A210,1)</f>
         <v>39356</v>
@@ -8573,7 +8595,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" ref="A216" si="10">EDATE(A215,1)</f>
         <v>39387</v>
@@ -8594,7 +8616,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>39417</v>
@@ -8619,7 +8641,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>76</v>
@@ -8641,7 +8663,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>159</v>
       </c>
@@ -8659,7 +8681,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39448</v>
       </c>
@@ -8683,7 +8705,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>141</v>
@@ -8703,7 +8725,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>155</v>
@@ -8725,7 +8747,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>141</v>
@@ -8747,7 +8769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>74</v>
@@ -8769,7 +8791,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -8794,7 +8816,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" ref="A226:A231" si="11">EDATE(A225,1)</f>
         <v>39508</v>
@@ -8819,7 +8841,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>166</v>
@@ -8841,7 +8863,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>39539</v>
@@ -8866,7 +8888,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>168</v>
@@ -8888,7 +8910,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39569</v>
@@ -8913,7 +8935,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -8938,7 +8960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>71</v>
@@ -8960,7 +8982,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>39630</v>
@@ -8985,7 +9007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>155</v>
@@ -9009,7 +9031,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>173</v>
@@ -9031,7 +9053,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A233,1)</f>
         <v>39661</v>
@@ -9058,7 +9080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13">
@@ -9076,7 +9098,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A236,1)</f>
         <v>39692</v>
@@ -9101,7 +9123,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>175</v>
@@ -9123,7 +9145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>141</v>
@@ -9145,7 +9167,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>141</v>
@@ -9165,7 +9187,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>178</v>
@@ -9187,7 +9209,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A238,1)</f>
         <v>39722</v>
@@ -9214,7 +9236,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>141</v>
@@ -9236,7 +9258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>181</v>
@@ -9258,7 +9280,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A243,1)</f>
         <v>39753</v>
@@ -9283,7 +9305,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -9305,7 +9327,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>141</v>
@@ -9327,7 +9349,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>184</v>
@@ -9349,7 +9371,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A246,1)</f>
         <v>39783</v>
@@ -9374,7 +9396,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
         <v>186</v>
       </c>
@@ -9392,7 +9414,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39814</v>
       </c>
@@ -9418,7 +9440,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>141</v>
@@ -9440,7 +9462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -9458,7 +9480,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39845</v>
       </c>
@@ -9484,7 +9506,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
@@ -9502,7 +9524,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39873</v>
@@ -9527,7 +9549,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>144</v>
@@ -9547,7 +9569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>155</v>
@@ -9569,7 +9591,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>74</v>
@@ -9591,7 +9613,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A257,1)</f>
         <v>39904</v>
@@ -9616,7 +9638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>49</v>
@@ -9638,7 +9660,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -9656,7 +9678,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39934</v>
@@ -9677,7 +9699,7 @@
       <c r="J264" s="12"/>
       <c r="K264" s="15"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="12">EDATE(A264,1)</f>
         <v>39965</v>
@@ -9702,7 +9724,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>155</v>
@@ -9726,7 +9748,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>155</v>
@@ -9748,7 +9770,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9766,7 +9788,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f>EDATE(A265,1)</f>
         <v>39995</v>
@@ -9791,7 +9813,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>199</v>
@@ -9813,7 +9835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13">
@@ -9831,7 +9853,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A269,1)</f>
         <v>40026</v>
@@ -9852,7 +9874,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -9877,7 +9899,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>202</v>
@@ -9899,7 +9921,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>40087</v>
@@ -9926,7 +9948,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>204</v>
@@ -9948,7 +9970,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>40118</v>
@@ -9973,7 +9995,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -10000,7 +10022,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>207</v>
@@ -10022,7 +10044,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="48" t="s">
         <v>208</v>
       </c>
@@ -10040,7 +10062,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40179</v>
       </c>
@@ -10064,7 +10086,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A281,1)</f>
         <v>40210</v>
@@ -10085,7 +10107,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" ref="A283:A294" si="13">EDATE(A282,1)</f>
         <v>40238</v>
@@ -10108,7 +10130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13">
@@ -10126,7 +10148,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>40269</v>
@@ -10147,7 +10169,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -10168,7 +10190,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -10191,7 +10213,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -10209,7 +10231,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>40360</v>
@@ -10230,7 +10252,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -10251,7 +10273,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -10272,7 +10294,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -10293,7 +10315,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -10314,7 +10336,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -10335,7 +10357,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="48" t="s">
         <v>213</v>
       </c>
@@ -10353,7 +10375,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40544</v>
       </c>
@@ -10373,7 +10395,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A296,1)</f>
         <v>40575</v>
@@ -10396,7 +10418,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13">
@@ -10414,7 +10436,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40603</v>
@@ -10439,7 +10461,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>45</v>
@@ -10461,7 +10483,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>218</v>
@@ -10483,7 +10505,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>40634</v>
@@ -10506,7 +10528,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>220</v>
@@ -10528,7 +10550,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>40664</v>
@@ -10553,7 +10575,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" ref="A305:A317" si="14">EDATE(A304,1)</f>
         <v>40695</v>
@@ -10578,7 +10600,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>65</v>
@@ -10600,7 +10622,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>40725</v>
@@ -10625,7 +10647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>168</v>
@@ -10647,7 +10669,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40756</v>
@@ -10672,7 +10694,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -10697,7 +10719,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>49</v>
@@ -10719,7 +10741,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>67</v>
@@ -10741,7 +10763,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>87</v>
@@ -10763,7 +10785,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>229</v>
@@ -10785,7 +10807,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A310,1)</f>
         <v>40817</v>
@@ -10810,7 +10832,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -10835,7 +10857,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="14"/>
         <v>40878</v>
@@ -10860,7 +10882,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="48" t="s">
         <v>231</v>
       </c>
@@ -10878,7 +10900,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>40909</v>
       </c>
@@ -10902,7 +10924,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>205</v>
@@ -10924,7 +10946,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>40940</v>
@@ -10949,7 +10971,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" ref="A322:A343" si="15">EDATE(A321,1)</f>
         <v>40969</v>
@@ -10974,7 +10996,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>144</v>
@@ -10994,7 +11016,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>205</v>
@@ -11016,7 +11038,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41000</v>
@@ -11043,7 +11065,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -11065,7 +11087,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>238</v>
@@ -11085,7 +11107,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>41030</v>
@@ -11110,7 +11132,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -11135,7 +11157,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11157,7 +11179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>45</v>
@@ -11179,7 +11201,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>239</v>
@@ -11201,7 +11223,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A329,1)</f>
         <v>41091</v>
@@ -11226,7 +11248,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>45</v>
@@ -11248,7 +11270,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>49</v>
@@ -11270,7 +11292,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>205</v>
@@ -11292,7 +11314,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A333,1)</f>
         <v>41122</v>
@@ -11317,7 +11339,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -11342,7 +11364,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>205</v>
@@ -11364,7 +11386,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>41183</v>
@@ -11391,7 +11413,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>239</v>
@@ -11413,7 +11435,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>41214</v>
@@ -11438,7 +11460,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="15"/>
         <v>41244</v>
@@ -11463,7 +11485,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="48" t="s">
         <v>251</v>
       </c>
@@ -11481,7 +11503,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>41275</v>
       </c>
@@ -11505,7 +11527,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -11523,7 +11545,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A345,1)</f>
         <v>41306</v>
@@ -11544,7 +11566,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" ref="A348:A364" si="16">EDATE(A347,1)</f>
         <v>41334</v>
@@ -11569,7 +11591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>76</v>
@@ -11591,7 +11613,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13">
@@ -11609,7 +11631,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>41365</v>
@@ -11634,7 +11656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13">
@@ -11652,7 +11674,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>41395</v>
@@ -11677,7 +11699,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -11695,7 +11717,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>41426</v>
@@ -11720,7 +11742,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -11738,7 +11760,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>41456</v>
@@ -11765,7 +11787,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>141</v>
@@ -11787,7 +11809,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -11805,7 +11827,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -11826,7 +11848,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -11851,7 +11873,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>265</v>
@@ -11873,7 +11895,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>41548</v>
@@ -11898,7 +11920,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -11923,7 +11945,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>268</v>
@@ -11945,7 +11967,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41609</v>
@@ -11970,7 +11992,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="51" t="s">
         <v>252</v>
       </c>
@@ -11988,7 +12010,7 @@
       <c r="J367" s="12"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>41640</v>
       </c>
@@ -12012,7 +12034,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>214</v>
@@ -12032,7 +12054,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
@@ -12050,7 +12072,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A368,1)</f>
         <v>41671</v>
@@ -12071,7 +12093,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A385" si="17">EDATE(A371,1)</f>
         <v>41699</v>
@@ -12094,7 +12116,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13">
@@ -12112,7 +12134,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41730</v>
@@ -12133,7 +12155,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -12158,7 +12180,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13">
@@ -12176,7 +12198,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41791</v>
@@ -12197,7 +12219,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -12218,7 +12240,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -12243,7 +12265,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -12261,7 +12283,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41883</v>
@@ -12286,7 +12308,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>87</v>
@@ -12308,7 +12330,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13">
@@ -12326,7 +12348,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A381,1)</f>
         <v>41913</v>
@@ -12347,7 +12369,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -12370,7 +12392,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A385,1)</f>
         <v>41974</v>
@@ -12391,7 +12413,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="48" t="s">
         <v>253</v>
       </c>
@@ -12409,7 +12431,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>42005</v>
       </c>
@@ -12433,7 +12455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>45</v>
@@ -12455,7 +12477,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13">
@@ -12473,7 +12495,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42036</v>
@@ -12494,7 +12516,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A403" si="18">EDATE(A391,1)</f>
         <v>42064</v>
@@ -12519,7 +12541,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12537,7 +12559,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>42095</v>
@@ -12558,7 +12580,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -12579,7 +12601,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -12600,7 +12622,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -12621,7 +12643,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -12646,7 +12668,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12664,7 +12686,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42248</v>
@@ -12689,7 +12711,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -12707,7 +12729,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42278</v>
@@ -12728,7 +12750,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -12753,7 +12775,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13">
@@ -12771,7 +12793,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42339</v>
@@ -12796,7 +12818,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="51" t="s">
         <v>254</v>
       </c>
@@ -12814,7 +12836,7 @@
       <c r="J406" s="12"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42370</v>
       </c>
@@ -12838,7 +12860,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13">
@@ -12856,7 +12878,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42401</v>
@@ -12877,7 +12899,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" ref="A410:A423" si="19">EDATE(A409,1)</f>
         <v>42430</v>
@@ -12902,7 +12924,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>120</v>
@@ -12922,7 +12944,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13">
@@ -12940,7 +12962,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A410,1)</f>
         <v>42461</v>
@@ -12965,7 +12987,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -12983,7 +13005,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42491</v>
@@ -13004,7 +13026,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A415,1)</f>
         <v>42522</v>
@@ -13029,7 +13051,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13">
@@ -13047,7 +13069,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A416,1)</f>
         <v>42552</v>
@@ -13068,7 +13090,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -13093,7 +13115,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>87</v>
@@ -13115,7 +13137,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13">
@@ -13133,7 +13155,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A419,1)</f>
         <v>42614</v>
@@ -13158,7 +13180,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -13183,7 +13205,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>69</v>
@@ -13205,7 +13227,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42675</v>
@@ -13230,7 +13252,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f>EDATE(A425,1)</f>
         <v>42705</v>
@@ -13255,7 +13277,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>290</v>
@@ -13275,7 +13297,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="48" t="s">
         <v>255</v>
       </c>
@@ -13293,7 +13315,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>42736</v>
       </c>
@@ -13317,7 +13339,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A429,1)</f>
         <v>42767</v>
@@ -13336,7 +13358,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>292</v>
@@ -13358,7 +13380,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>42795</v>
@@ -13383,7 +13405,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A443" si="20">EDATE(A432,1)</f>
         <v>42826</v>
@@ -13404,7 +13426,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -13429,7 +13451,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>224</v>
@@ -13451,7 +13473,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f>EDATE(A434,1)</f>
         <v>42887</v>
@@ -13476,7 +13498,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -13497,7 +13519,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -13522,7 +13544,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13">
@@ -13540,7 +13562,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42979</v>
@@ -13565,7 +13587,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13583,7 +13605,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>43009</v>
@@ -13604,7 +13626,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -13625,7 +13647,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>43070</v>
@@ -13650,7 +13672,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>51</v>
@@ -13672,7 +13694,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="48" t="s">
         <v>298</v>
       </c>
@@ -13690,7 +13712,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43101</v>
       </c>
@@ -13710,7 +13732,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A447,1)</f>
         <v>43132</v>
@@ -13735,7 +13757,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>49</v>
@@ -13757,7 +13779,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13">
@@ -13775,7 +13797,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A448,1)</f>
         <v>43160</v>
@@ -13800,7 +13822,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" ref="A452:A464" si="21">EDATE(A451,1)</f>
         <v>43191</v>
@@ -13825,7 +13847,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -13846,7 +13868,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -13871,7 +13893,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -13893,7 +13915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -13911,7 +13933,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43282</v>
@@ -13936,7 +13958,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -13961,7 +13983,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -13982,7 +14004,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -14007,7 +14029,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>45</v>
@@ -14029,7 +14051,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -14047,7 +14069,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43405</v>
@@ -14072,7 +14094,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -14097,7 +14119,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="48" t="s">
         <v>305</v>
       </c>
@@ -14115,7 +14137,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43466</v>
       </c>
@@ -14139,7 +14161,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13">
@@ -14157,7 +14179,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A466,1)</f>
         <v>43497</v>
@@ -14178,7 +14200,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" ref="A469:A479" si="22">EDATE(A468,1)</f>
         <v>43525</v>
@@ -14201,7 +14223,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -14219,7 +14241,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A469,1)</f>
         <v>43556</v>
@@ -14240,7 +14262,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -14261,7 +14283,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -14284,7 +14306,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -14309,7 +14331,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -14334,7 +14356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13">
@@ -14352,7 +14374,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f>EDATE(A475,1)</f>
         <v>43709</v>
@@ -14373,7 +14395,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f t="shared" si="22"/>
         <v>43739</v>
@@ -14398,7 +14420,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -14423,7 +14445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13">
@@ -14441,7 +14463,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A479,1)</f>
         <v>43800</v>
@@ -14466,7 +14488,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>312</v>
@@ -14486,7 +14508,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="48" t="s">
         <v>311</v>
       </c>
@@ -14504,7 +14526,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43831</v>
       </c>
@@ -14526,7 +14548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>214</v>
@@ -14546,7 +14568,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14564,7 +14586,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A484,1)</f>
         <v>43862</v>
@@ -14585,7 +14607,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A497" si="23">EDATE(A487,1)</f>
         <v>43891</v>
@@ -14610,7 +14632,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13">
@@ -14628,7 +14650,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>43922</v>
@@ -14649,7 +14671,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -14670,7 +14692,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -14691,7 +14713,7 @@
       <c r="J492" s="12"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -14712,7 +14734,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>44044</v>
@@ -14733,7 +14755,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -14754,7 +14776,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -14775,7 +14797,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="23"/>
         <v>44136</v>
@@ -14796,7 +14818,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A497,1)</f>
         <v>44166</v>
@@ -14817,7 +14839,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="48" t="s">
         <v>317</v>
       </c>
@@ -14835,7 +14857,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44197</v>
       </c>
@@ -14855,7 +14877,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f>EDATE(A500,1)</f>
         <v>44228</v>
@@ -14876,7 +14898,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" ref="A502:A511" si="24">EDATE(A501,1)</f>
         <v>44256</v>
@@ -14897,7 +14919,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -14918,7 +14940,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -14939,7 +14961,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -14960,7 +14982,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -14981,7 +15003,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -15002,7 +15024,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -15023,7 +15045,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -15044,7 +15066,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -15065,7 +15087,7 @@
       <c r="J510" s="12"/>
       <c r="K510" s="15"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="24"/>
         <v>44531</v>
@@ -15090,7 +15112,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="48" t="s">
         <v>318</v>
       </c>
@@ -15108,7 +15130,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44562</v>
       </c>
@@ -15128,7 +15150,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f>EDATE(A513,1)</f>
         <v>44593</v>
@@ -15149,7 +15171,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" ref="A515:A520" si="25">EDATE(A514,1)</f>
         <v>44621</v>
@@ -15174,7 +15196,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
@@ -15199,7 +15221,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -15226,7 +15248,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>334</v>
@@ -15246,7 +15268,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <f>EDATE(A517,1)</f>
         <v>44713</v>
@@ -15271,7 +15293,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f t="shared" si="25"/>
         <v>44743</v>
@@ -15298,7 +15320,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>331</v>
@@ -15318,7 +15340,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="53"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="41">
         <v>44774</v>
       </c>
@@ -15344,7 +15366,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>330</v>
@@ -15364,7 +15386,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="49"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44805</v>
       </c>
@@ -15390,7 +15412,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>328</v>
@@ -15410,7 +15432,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44835</v>
       </c>
@@ -15434,7 +15456,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44866</v>
       </c>
@@ -15454,7 +15476,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44896</v>
       </c>
@@ -15480,7 +15502,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>326</v>
@@ -15500,7 +15522,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="48" t="s">
         <v>320</v>
       </c>
@@ -15518,7 +15540,7 @@
       <c r="J530" s="12"/>
       <c r="K530" s="15"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44927</v>
       </c>
@@ -15542,7 +15564,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44958</v>
       </c>
@@ -15566,7 +15588,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44986</v>
       </c>
@@ -15592,7 +15614,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>351</v>
@@ -15612,7 +15634,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45017</v>
       </c>
@@ -15638,7 +15660,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>352</v>
@@ -15658,7 +15680,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="49"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45047</v>
       </c>
@@ -15678,7 +15700,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>45078</v>
       </c>
@@ -15698,7 +15720,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45108</v>
       </c>
@@ -15724,7 +15746,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>351</v>
@@ -15744,7 +15766,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="49"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>45139</v>
       </c>
@@ -15764,7 +15786,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45170</v>
       </c>
@@ -15788,7 +15810,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45200</v>
       </c>
@@ -15812,7 +15834,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45231</v>
       </c>
@@ -15838,7 +15860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45261</v>
       </c>
@@ -15864,7 +15886,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>337</v>
@@ -15883,7 +15905,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>342</v>
@@ -15905,7 +15927,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>344</v>
@@ -15925,7 +15947,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>346</v>
@@ -15947,7 +15969,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>348</v>
@@ -15967,7 +15989,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="48" t="s">
         <v>340</v>
       </c>
@@ -15982,25 +16004,33 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45292</v>
       </c>
-      <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
+      <c r="B552" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H552" s="39"/>
+      <c r="G552" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H552" s="39">
+        <v>20</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
-    </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K552" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45323</v>
       </c>
@@ -16018,7 +16048,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45352</v>
       </c>
@@ -16036,7 +16066,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45383</v>
       </c>
@@ -16054,7 +16084,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45413</v>
       </c>
@@ -16072,7 +16102,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45444</v>
       </c>
@@ -16090,7 +16120,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45474</v>
       </c>
@@ -16108,7 +16138,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45505</v>
       </c>
@@ -16126,7 +16156,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45536</v>
       </c>
@@ -16144,7 +16174,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45566</v>
       </c>
@@ -16162,7 +16192,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45597</v>
       </c>
@@ -16180,7 +16210,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45627</v>
       </c>
@@ -16198,7 +16228,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45658</v>
       </c>
@@ -16216,7 +16246,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45689</v>
       </c>
@@ -16234,7 +16264,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45717</v>
       </c>
@@ -16252,7 +16282,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45748</v>
       </c>
@@ -16270,7 +16300,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45778</v>
       </c>
@@ -16288,7 +16318,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45809</v>
       </c>
@@ -16306,7 +16336,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45839</v>
       </c>
@@ -16324,7 +16354,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45870</v>
       </c>
@@ -16342,7 +16372,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45901</v>
       </c>
@@ -16360,7 +16390,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45931</v>
       </c>
@@ -16378,7 +16408,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45962</v>
       </c>
@@ -16396,7 +16426,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45992</v>
       </c>
@@ -16414,7 +16444,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>46023</v>
       </c>
@@ -16432,7 +16462,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>46054</v>
       </c>
@@ -16450,7 +16480,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>46082</v>
       </c>
@@ -16468,7 +16498,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>46113</v>
       </c>
@@ -16486,7 +16516,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>46143</v>
       </c>
@@ -16504,7 +16534,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>46174</v>
       </c>
@@ -16522,7 +16552,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>46204</v>
       </c>
@@ -16540,7 +16570,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>46235</v>
       </c>
@@ -16558,7 +16588,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>46266</v>
       </c>
@@ -16576,7 +16606,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>46296</v>
       </c>
@@ -16594,7 +16624,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>46327</v>
       </c>
@@ -16612,7 +16642,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>46357</v>
       </c>
@@ -16630,7 +16660,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>46388</v>
       </c>
@@ -16648,7 +16678,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>46419</v>
       </c>
@@ -16666,7 +16696,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>46447</v>
       </c>
@@ -16684,7 +16714,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>46478</v>
       </c>
@@ -16702,7 +16732,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>46508</v>
       </c>
@@ -16720,7 +16750,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>46539</v>
       </c>
@@ -16738,7 +16768,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>46569</v>
       </c>
@@ -16756,7 +16786,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>46600</v>
       </c>
@@ -16774,7 +16804,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>46631</v>
       </c>
@@ -16792,7 +16822,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>46661</v>
       </c>
@@ -16810,7 +16840,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>46692</v>
       </c>
@@ -16828,7 +16858,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>46722</v>
       </c>
@@ -16846,7 +16876,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>46753</v>
       </c>
@@ -16864,7 +16894,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>46784</v>
       </c>
@@ -16882,7 +16912,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>46813</v>
       </c>
@@ -16900,7 +16930,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>46844</v>
       </c>
@@ -16918,7 +16948,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>46874</v>
       </c>
@@ -16936,7 +16966,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>46905</v>
       </c>
@@ -16954,7 +16984,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>46935</v>
       </c>
@@ -16972,7 +17002,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>46966</v>
       </c>
@@ -16990,7 +17020,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>46997</v>
       </c>
@@ -17008,7 +17038,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>47027</v>
       </c>
@@ -17026,7 +17056,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>47058</v>
       </c>
@@ -17044,7 +17074,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>47088</v>
       </c>
@@ -17062,7 +17092,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>47119</v>
       </c>
@@ -17080,7 +17110,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>47150</v>
       </c>
@@ -17098,7 +17128,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>47178</v>
       </c>
@@ -17116,7 +17146,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>47209</v>
       </c>
@@ -17134,7 +17164,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>47239</v>
       </c>
@@ -17152,7 +17182,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>47270</v>
       </c>
@@ -17170,7 +17200,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>47300</v>
       </c>
@@ -17188,7 +17218,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>47331</v>
       </c>
@@ -17206,7 +17236,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>47362</v>
       </c>
@@ -17224,7 +17254,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>47392</v>
       </c>
@@ -17242,7 +17272,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>47423</v>
       </c>
@@ -17260,7 +17290,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>47453</v>
       </c>
@@ -17278,7 +17308,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>47484</v>
       </c>
@@ -17296,7 +17326,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>47515</v>
       </c>
@@ -17314,7 +17344,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>47543</v>
       </c>
@@ -17332,7 +17362,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>47574</v>
       </c>
@@ -17350,7 +17380,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>47604</v>
       </c>
@@ -17368,7 +17398,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>47635</v>
       </c>
@@ -17386,7 +17416,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>47665</v>
       </c>
@@ -17404,7 +17434,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>47696</v>
       </c>
@@ -17422,7 +17452,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>47727</v>
       </c>
@@ -17440,7 +17470,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>47757</v>
       </c>
@@ -17458,7 +17488,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>47788</v>
       </c>
@@ -17476,7 +17506,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>47818</v>
       </c>
@@ -17494,7 +17524,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>47849</v>
       </c>
@@ -17512,7 +17542,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>47880</v>
       </c>
@@ -17530,7 +17560,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>47908</v>
       </c>
@@ -17548,7 +17578,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>47939</v>
       </c>
@@ -17566,7 +17596,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>47969</v>
       </c>
@@ -17584,7 +17614,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>48000</v>
       </c>
@@ -17602,7 +17632,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>48030</v>
       </c>
@@ -17620,7 +17650,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>48061</v>
       </c>
@@ -17638,7 +17668,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>48092</v>
       </c>
@@ -17656,7 +17686,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>48122</v>
       </c>
@@ -17674,7 +17704,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>48153</v>
       </c>
@@ -17692,7 +17722,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>48183</v>
       </c>
@@ -17710,7 +17740,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>48214</v>
       </c>
@@ -17728,7 +17758,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>48245</v>
       </c>
@@ -17746,7 +17776,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>48274</v>
       </c>
@@ -17764,7 +17794,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>48305</v>
       </c>
@@ -17782,7 +17812,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>48335</v>
       </c>
@@ -17800,7 +17830,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>48366</v>
       </c>
@@ -17818,7 +17848,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>48396</v>
       </c>
@@ -17836,7 +17866,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>48427</v>
       </c>
@@ -17854,7 +17884,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>48458</v>
       </c>
@@ -17872,7 +17902,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>48488</v>
       </c>
@@ -17890,7 +17920,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>48519</v>
       </c>
@@ -17908,7 +17938,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>48549</v>
       </c>
@@ -17926,7 +17956,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>48580</v>
       </c>
@@ -17944,7 +17974,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>48611</v>
       </c>
@@ -17962,7 +17992,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <v>48639</v>
       </c>
@@ -17980,7 +18010,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>48670</v>
       </c>
@@ -17998,7 +18028,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>48700</v>
       </c>
@@ -18016,7 +18046,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>48731</v>
       </c>
@@ -18034,7 +18064,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>48761</v>
       </c>
@@ -18052,7 +18082,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>48792</v>
       </c>
@@ -18070,7 +18100,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>48823</v>
       </c>
@@ -18088,7 +18118,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>48853</v>
       </c>
@@ -18106,7 +18136,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <v>48884</v>
       </c>
@@ -18124,7 +18154,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>48914</v>
       </c>
@@ -18142,7 +18172,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>48945</v>
       </c>
@@ -18160,7 +18190,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>48976</v>
       </c>
@@ -18178,7 +18208,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>49004</v>
       </c>
@@ -18196,7 +18226,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>49035</v>
       </c>
@@ -18214,7 +18244,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>49065</v>
       </c>
@@ -18232,7 +18262,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
         <v>49096</v>
       </c>
@@ -18250,7 +18280,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>49126</v>
       </c>
@@ -18268,7 +18298,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>49157</v>
       </c>
@@ -18286,7 +18316,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>49188</v>
       </c>
@@ -18304,7 +18334,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>49218</v>
       </c>
@@ -18322,7 +18352,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>49249</v>
       </c>
@@ -18340,7 +18370,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
         <v>49279</v>
       </c>
@@ -18358,7 +18388,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>49310</v>
       </c>
@@ -18376,7 +18406,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>49341</v>
       </c>
@@ -18394,7 +18424,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>49369</v>
       </c>
@@ -18412,7 +18442,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>49400</v>
       </c>
@@ -18430,7 +18460,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <v>49430</v>
       </c>
@@ -18448,7 +18478,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>49461</v>
       </c>
@@ -18466,7 +18496,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>49491</v>
       </c>
@@ -18484,7 +18514,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>49522</v>
       </c>
@@ -18502,7 +18532,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>49553</v>
       </c>
@@ -18520,7 +18550,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>49583</v>
       </c>
@@ -18538,7 +18568,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>49614</v>
       </c>
@@ -18556,7 +18586,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>49644</v>
       </c>
@@ -18574,7 +18604,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
         <v>49675</v>
       </c>
@@ -18592,7 +18622,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>49706</v>
       </c>
@@ -18610,7 +18640,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <v>49735</v>
       </c>
@@ -18628,7 +18658,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <v>49766</v>
       </c>
@@ -18646,7 +18676,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <v>49796</v>
       </c>
@@ -18664,7 +18694,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <v>49827</v>
       </c>
@@ -18682,7 +18712,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <v>49857</v>
       </c>
@@ -18700,7 +18730,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <v>49888</v>
       </c>
@@ -18718,7 +18748,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>49919</v>
       </c>
@@ -18736,7 +18766,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>49949</v>
       </c>
@@ -18754,7 +18784,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <v>49980</v>
       </c>
@@ -18772,7 +18802,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>50010</v>
       </c>
@@ -18790,7 +18820,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>50041</v>
       </c>
@@ -18808,7 +18838,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>50072</v>
       </c>
@@ -18826,7 +18856,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>50100</v>
       </c>
@@ -18844,7 +18874,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>50131</v>
       </c>
@@ -18862,7 +18892,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>50161</v>
       </c>
@@ -18880,7 +18910,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>50192</v>
       </c>
@@ -18898,7 +18928,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>50222</v>
       </c>
@@ -18916,7 +18946,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>50253</v>
       </c>
@@ -18934,7 +18964,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
         <v>50284</v>
       </c>
@@ -18952,7 +18982,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>50314</v>
       </c>
@@ -18970,7 +19000,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
         <v>50345</v>
       </c>
@@ -18988,7 +19018,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
         <v>50375</v>
       </c>
@@ -19006,7 +19036,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
         <v>50406</v>
       </c>
@@ -19024,7 +19054,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
         <v>50437</v>
       </c>
@@ -19042,7 +19072,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
         <v>50465</v>
       </c>
@@ -19060,7 +19090,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
         <v>50496</v>
       </c>
@@ -19078,7 +19108,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
         <v>50526</v>
       </c>
@@ -19096,7 +19126,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
         <v>50557</v>
       </c>
@@ -19114,7 +19144,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
         <v>50587</v>
       </c>
@@ -19132,7 +19162,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
         <v>50618</v>
       </c>
@@ -19150,7 +19180,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
         <v>50649</v>
       </c>
@@ -19168,7 +19198,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
         <v>50679</v>
       </c>
@@ -19186,7 +19216,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19202,7 +19232,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19218,7 +19248,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19234,7 +19264,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="41"/>
       <c r="B733" s="15"/>
       <c r="C733" s="42"/>
@@ -19265,10 +19295,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19291,7 +19321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19299,21 +19329,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -19326,7 +19356,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19355,7 +19385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -19381,17 +19411,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19412,7 +19442,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19439,7 +19469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19465,7 +19495,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19491,7 +19521,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19517,7 +19547,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19543,7 +19573,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19569,7 +19599,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19595,7 +19625,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19621,7 +19651,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19641,7 +19671,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19661,7 +19691,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19681,7 +19711,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19702,7 +19732,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19723,7 +19753,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19744,7 +19774,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19765,7 +19795,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19786,7 +19816,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19807,7 +19837,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19828,7 +19858,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19849,7 +19879,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19870,7 +19900,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19891,7 +19921,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19912,7 +19942,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19933,7 +19963,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19954,7 +19984,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19975,7 +20005,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19996,7 +20026,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20017,7 +20047,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20038,7 +20068,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20059,7 +20089,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20080,7 +20110,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20101,7 +20131,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20110,7 +20140,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20119,7 +20149,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20128,7 +20158,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20137,7 +20167,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20146,7 +20176,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20155,7 +20185,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20164,7 +20194,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20173,7 +20203,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20182,7 +20212,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20191,7 +20221,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20200,7 +20230,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20209,7 +20239,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20218,7 +20248,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20227,7 +20257,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20236,7 +20266,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20245,7 +20275,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20254,7 +20284,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20263,7 +20293,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20272,7 +20302,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20281,7 +20311,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20290,7 +20320,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20299,7 +20329,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20308,7 +20338,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20317,7 +20347,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20326,7 +20356,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20335,7 +20365,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20344,7 +20374,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20353,7 +20383,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20362,7 +20392,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
